--- a/output/ValueSet-botswana-amr-gram-stain-result-vs.xlsx
+++ b/output/ValueSet-botswana-amr-gram-stain-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T00:42:48-04:00</t>
+    <t>2025-07-08T11:52:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-botswana-amr-gram-stain-result-vs.xlsx
+++ b/output/ValueSet-botswana-amr-gram-stain-result-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T11:52:18-04:00</t>
+    <t>2025-07-09T10:14:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
